--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ngampus\Semester 5\Asdos\PrakStrukdat\UG\soalTabularPrStrukdat\Soal\Hari3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ug-minggu-6-yoshi-one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C1FFA5-BF1C-4275-BE8D-72AF9C7B2861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA529BC-0B77-4E08-85A6-D4F04B33ED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>NIM</t>
   </si>
   <si>
     <t>Nama</t>
+  </si>
+  <si>
+    <t>Nilai</t>
   </si>
   <si>
     <t>Stefanus Aditya Dwi Cahyono</t>
@@ -556,636 +559,637 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>71190504</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>71190510</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>71231001</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>71231014</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>623</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>71231038</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>71231046</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>71231048</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>71241070</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>71241071</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71241072</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>71241073</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>71241075</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>71241078</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>934</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>71241079</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>71241081</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>678</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>71241082</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>71241083</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>833</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>71241084</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>71241085</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>71241087</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>71241090</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>71241091</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>912</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>71241093</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>71241095</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>667</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>71241099</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>71241105</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>855</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>71241107</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>71241110</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>588</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>71241114</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>376</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>71241115</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>71241116</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>954</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>71241117</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>71241119</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>610</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>71241122</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>443</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>71241123</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>877</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>71241126</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>71241127</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>71241128</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>71241129</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>765</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>71241130</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>980</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>71241133</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>71241134</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>654</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>71241136</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>71241137</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>823</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>71241138</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>71241140</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>71241143</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <v>487</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>71241150</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>901</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>71241151</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>71241153</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>688</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>71241154</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>365</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>71241155</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>723</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71241156</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>71241159</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>71241161</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>71241170</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>476</v>
@@ -1193,6 +1197,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>